--- a/va_facility_data_2025-02-20/Tibor Rubin VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Tibor%20Rubin%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tibor Rubin VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Tibor%20Rubin%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R8ed0b2e59d034456aa0d29592153cdb6"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R02bb5cc0b6974241928093882cf46f91"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re1fb8fb8a78a43c2be291f2f90e56dac"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R7926dc64a52d4acbb29955f6e2e309b6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rcfa44a5eb17b49949ba773e5ab1400e7"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R97001c0037c74e93b111bbd6d76ba918"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rf8e9b94f21b247bc95f0caa8f1ffe8df"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rf3d43ca135a744558626e855079acae5"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R7f89a43b844b4bd6a7bab4a0905521d1"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R8d617413cbad4c28b47aad41ac026e0c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R6ca5e07bbc4241c9b79d21a1a0a31ada"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R84352ab3792d4a8b84916d98dbe4e8fd"/>
   </x:sheets>
 </x:workbook>
 </file>
